--- a/BPA/Emp_DB.xlsx
+++ b/BPA/Emp_DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oljupi\Documents\UiPath\BPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oljupi\Documents\UiPath\BPA\BPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66327CFF-7B5B-4885-BAE1-7160448EAFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E303FE13-452F-4D0D-81AA-B4648AABCACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{8E90E906-4C0F-415D-9155-A61132D92F0A}"/>
+    <workbookView xWindow="57420" yWindow="4770" windowWidth="29160" windowHeight="15960" xr2:uid="{8E90E906-4C0F-415D-9155-A61132D92F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
-  <si>
-    <t>Days Left</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Team</t>
   </si>
@@ -68,12 +54,6 @@
     <t>Payment</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Emp_Name</t>
   </si>
   <si>
@@ -83,7 +63,25 @@
     <t>Sub_ID</t>
   </si>
   <si>
-    <t>Sub_available</t>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Days_Left</t>
+  </si>
+  <si>
+    <t>Sub_Name</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Max Mad</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Jack D Ribba</t>
   </si>
 </sst>
 </file>
@@ -605,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ADF0DD-D100-49AF-9AAD-5B2B00F723C9}">
-  <dimension ref="B3:H30"/>
+  <dimension ref="B3:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -627,43 +625,45 @@
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="13">
         <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="15">
         <v>1000</v>
@@ -671,20 +671,22 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" s="13">
         <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="15">
         <v>1500</v>
@@ -692,20 +694,22 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F7" s="13">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="15">
         <v>2000</v>
@@ -713,20 +717,22 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="13">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="15">
         <v>1000</v>
@@ -734,20 +740,22 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="13">
         <v>5</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="15">
         <v>1500</v>
@@ -787,7 +795,6 @@
     <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/BPA/Emp_DB.xlsx
+++ b/BPA/Emp_DB.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oljupi\Documents\UiPath\BPA\BPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E303FE13-452F-4D0D-81AA-B4648AABCACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66199C5A-F484-41CF-AC15-95C5B0353C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57420" yWindow="4770" windowWidth="29160" windowHeight="15960" xr2:uid="{8E90E906-4C0F-415D-9155-A61132D92F0A}"/>
+    <workbookView xWindow="57480" yWindow="4830" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E90E906-4C0F-415D-9155-A61132D92F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
+    <sheet name="Manager" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Team</t>
   </si>
@@ -82,6 +83,24 @@
   </si>
   <si>
     <t>Jack D Ribba</t>
+  </si>
+  <si>
+    <t>M_Name</t>
+  </si>
+  <si>
+    <t>M_Mail</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Vinh</t>
+  </si>
+  <si>
+    <t>vinh123456789@outlook.de</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
 </sst>
 </file>
@@ -242,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,6 +306,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ADF0DD-D100-49AF-9AAD-5B2B00F723C9}">
   <dimension ref="B3:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -799,4 +821,93 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB51E3BE-C2EB-4AC8-B3F9-97712A2036DE}">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="24.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:4" ht="16.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>